--- a/後期_電気電子/ダイオード・トランジスタの特性/トランジスタの出力特性.xlsx
+++ b/後期_電気電子/ダイオード・トランジスタの特性/トランジスタの出力特性.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terfno/Documents/git/report/__実験実習_後期/電気電子/ダイオード・トランジスタの特性/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terfno/Documents/git/2018_report/後期_電気電子/ダイオード・トランジスタの特性/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328F6E58-E1F0-9640-89F8-1F3CC9F2CF31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6633EA2C-52B0-E84C-A614-E036DAE5DD51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D9526172-4993-A844-8F73-B6B6A24771D6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{D9526172-4993-A844-8F73-B6B6A24771D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1017,7 +1017,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>$I_B$[μA]</a:t>
+                  <a:t>$I_C$[μA]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2071,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B32668E-B991-2E44-B21E-E91D06C11CB7}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="177" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2186,7 +2186,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F4:F25" si="0">100/E7</f>
+        <f t="shared" ref="F7:F14" si="0">100/E7</f>
         <v>20</v>
       </c>
     </row>
